--- a/Proyectos/Viaticos/05/Viaticos-AuditoriaPropuesta-160322.xlsx
+++ b/Proyectos/Viaticos/05/Viaticos-AuditoriaPropuesta-160322.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -1210,22 +1210,22 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1386,11 +1386,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="93197824"/>
-        <c:axId val="93199360"/>
+        <c:axId val="109458944"/>
+        <c:axId val="109460864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93197824"/>
+        <c:axId val="109458944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,14 +1431,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93199360"/>
+        <c:crossAx val="109460864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93199360"/>
+        <c:axId val="109460864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1488,7 +1488,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93197824"/>
+        <c:crossAx val="109458944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1530,7 +1530,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1664,11 +1664,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="93219456"/>
-        <c:axId val="93229440"/>
+        <c:axId val="106245120"/>
+        <c:axId val="106296064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93219456"/>
+        <c:axId val="106245120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,14 +1709,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93229440"/>
+        <c:crossAx val="106296064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93229440"/>
+        <c:axId val="106296064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1766,7 +1766,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93219456"/>
+        <c:crossAx val="106245120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,7 +1808,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1912,11 +1912,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="94580736"/>
-        <c:axId val="94582272"/>
+        <c:axId val="108671360"/>
+        <c:axId val="108672896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94580736"/>
+        <c:axId val="108671360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,14 +1957,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94582272"/>
+        <c:crossAx val="108672896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94582272"/>
+        <c:axId val="108672896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2014,7 +2014,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94580736"/>
+        <c:crossAx val="108671360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2056,7 +2056,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2160,11 +2160,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="94606464"/>
-        <c:axId val="94608000"/>
+        <c:axId val="108873216"/>
+        <c:axId val="108874752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94606464"/>
+        <c:axId val="108873216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,14 +2205,14 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94608000"/>
+        <c:crossAx val="108874752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94608000"/>
+        <c:axId val="108874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2262,7 +2262,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94606464"/>
+        <c:crossAx val="108873216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2304,7 +2304,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2953,7 +2953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2963,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3435,22 +3435,22 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3460,17 +3460,17 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B6" s="20">
@@ -3551,14 +3551,14 @@
     </row>
     <row r="12" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="13" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B14" s="20">
@@ -3652,14 +3652,14 @@
     </row>
     <row r="21" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="22" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" ht="16.5">
       <c r="B23" s="20">
@@ -3766,10 +3766,10 @@
     </row>
     <row r="31" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="32" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -3828,14 +3828,14 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" ht="16.5"/>
     <row r="38" spans="2:7" s="18" customFormat="1" ht="18" customHeight="1">
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" ht="17.25" customHeight="1">
       <c r="B39" s="20">
@@ -3907,6 +3907,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
@@ -3917,12 +3923,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="D23:F30">
     <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
@@ -3944,7 +3944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -3970,23 +3970,23 @@
     </row>
     <row r="3" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="35" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="34"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -3996,18 +3996,18 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="28"/>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A6" s="32"/>
@@ -4173,14 +4173,14 @@
     </row>
     <row r="18" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A19" s="32"/>
@@ -4374,14 +4374,14 @@
     </row>
     <row r="33" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A34" s="32"/>
@@ -4569,14 +4569,14 @@
     </row>
     <row r="46" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="43"/>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
     </row>
     <row r="47" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A47" s="32"/>
@@ -4812,14 +4812,14 @@
     </row>
     <row r="64" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="43"/>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
     </row>
     <row r="65" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A65" s="32"/>
@@ -4915,14 +4915,14 @@
     </row>
     <row r="72" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="43"/>
-      <c r="B72" s="85" t="s">
+      <c r="B72" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
     </row>
     <row r="73" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="A73" s="32"/>
@@ -4990,14 +4990,14 @@
     </row>
     <row r="78" spans="1:7" s="44" customFormat="1" ht="16.5" customHeight="1">
       <c r="A78" s="43"/>
-      <c r="B78" s="85" t="s">
+      <c r="B78" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
     </row>
     <row r="79" spans="1:7" s="33" customFormat="1" ht="16.5">
       <c r="B79" s="46">
@@ -5094,30 +5094,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="C86">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
@@ -5154,16 +5154,16 @@
   <sheetData>
     <row r="1" spans="2:12" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="49"/>
@@ -5173,8 +5173,8 @@
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" ht="17.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
@@ -5192,10 +5192,10 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="89"/>
       <c r="E5" s="89"/>
       <c r="F5" s="89"/>
@@ -5279,14 +5279,14 @@
       <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="54"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -5386,14 +5386,14 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="54"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
@@ -5430,18 +5430,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5470,22 +5470,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="67.5" customHeight="1"/>
     <row r="3" spans="2:7" ht="17.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="53" t="s">
         <v>12</v>
       </c>
@@ -5495,13 +5495,13 @@
       <c r="F4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="83"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="89"/>
       <c r="E5" s="89"/>
       <c r="F5" s="89"/>
@@ -5564,10 +5564,10 @@
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="90"/>
       <c r="E11" s="90"/>
       <c r="F11" s="90"/>
@@ -5680,14 +5680,14 @@
       <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="13.15" customHeight="1">
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
     </row>
     <row r="22" spans="2:7" s="33" customFormat="1" ht="16.5">
       <c r="B22" s="20">
@@ -5755,18 +5755,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
